--- a/3 семестр/Книга1.xlsx
+++ b/3 семестр/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonidbarinov/Desktop/latexlabs/3 семестр/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3EE2BD-BC99-7244-A6CE-29C01EAFC652}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8D87FC-635F-BF41-A2FB-A61AD473CB24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{BF012677-FB7D-F64C-A4CE-A3E3E886F530}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="B3:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B11" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1041,7 +1041,7 @@
         <v>0.182</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" ref="I30:J34" si="3">H30*980*G30*0.6</f>
+        <f t="shared" ref="I30:I34" si="3">H30*980*G30*0.6</f>
         <v>321.04799999999994</v>
       </c>
       <c r="J30" s="1">
